--- a/group_membership.xlsx
+++ b/group_membership.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantracy/Desktop/andre rc studies/police meta perceptions project/study 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantracy/Desktop/andre rc studies/police meta perceptions project/study 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD65D01F-378E-2646-9F55-7A4E694547C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E7E301-E506-8D45-8332-5926497E1EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3660" yWindow="2660" windowWidth="27640" windowHeight="16940" xr2:uid="{D84C8EAA-35AF-0C4C-8258-3A46A417A19C}"/>
   </bookViews>
@@ -533,10 +533,13 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="84.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
